--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_XAI_NoEng_swish.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>180.1708068847656</v>
+        <v>180.7994079589844</v>
       </c>
       <c r="H2" t="n">
-        <v>40.19727325439453</v>
+        <v>42.39338684082031</v>
       </c>
       <c r="I2" t="n">
-        <v>892.781982421875</v>
+        <v>889.238525390625</v>
       </c>
       <c r="J2" t="n">
-        <v>69.05672454833984</v>
+        <v>72.19087219238281</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>218.6322937011719</v>
+        <v>218.5972442626953</v>
       </c>
       <c r="H3" t="n">
-        <v>50.26269912719727</v>
+        <v>52.74047088623047</v>
       </c>
       <c r="I3" t="n">
-        <v>892.8173217773438</v>
+        <v>896.7706298828125</v>
       </c>
       <c r="J3" t="n">
-        <v>72.01243591308594</v>
+        <v>69.63477325439453</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>256.0094909667969</v>
+        <v>256.1017761230469</v>
       </c>
       <c r="H4" t="n">
-        <v>67.96861267089844</v>
+        <v>70.3328857421875</v>
       </c>
       <c r="I4" t="n">
-        <v>893.7274169921875</v>
+        <v>887.6845092773438</v>
       </c>
       <c r="J4" t="n">
-        <v>74.64899444580078</v>
+        <v>79.18405914306641</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>301.7925109863281</v>
+        <v>308.7768859863281</v>
       </c>
       <c r="H5" t="n">
-        <v>98.01430511474609</v>
+        <v>106.4464721679688</v>
       </c>
       <c r="I5" t="n">
-        <v>890.8433227539062</v>
+        <v>890.940185546875</v>
       </c>
       <c r="J5" t="n">
-        <v>70.83061981201172</v>
+        <v>74.41825866699219</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>376.6957092285156</v>
+        <v>378.9890441894531</v>
       </c>
       <c r="H6" t="n">
-        <v>138.6530609130859</v>
+        <v>141.9364013671875</v>
       </c>
       <c r="I6" t="n">
-        <v>882.166015625</v>
+        <v>879.404296875</v>
       </c>
       <c r="J6" t="n">
-        <v>77.84882354736328</v>
+        <v>75.15666198730469</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>150.0321807861328</v>
+        <v>151.8348236083984</v>
       </c>
       <c r="H7" t="n">
-        <v>37.64796447753906</v>
+        <v>38.58209228515625</v>
       </c>
       <c r="I7" t="n">
-        <v>931.696044921875</v>
+        <v>931.0787353515625</v>
       </c>
       <c r="J7" t="n">
-        <v>83.18883514404297</v>
+        <v>81.03098297119141</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>151.0281066894531</v>
+        <v>152.2019805908203</v>
       </c>
       <c r="H8" t="n">
-        <v>39.31006622314453</v>
+        <v>39.87323379516602</v>
       </c>
       <c r="I8" t="n">
-        <v>916.3671875</v>
+        <v>920.8438720703125</v>
       </c>
       <c r="J8" t="n">
-        <v>74.21614837646484</v>
+        <v>75.60880279541016</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>166.0989379882812</v>
+        <v>164.3118743896484</v>
       </c>
       <c r="H9" t="n">
-        <v>40.09048461914062</v>
+        <v>39.38413238525391</v>
       </c>
       <c r="I9" t="n">
-        <v>911.7332153320312</v>
+        <v>912.6676025390625</v>
       </c>
       <c r="J9" t="n">
-        <v>75.26912689208984</v>
+        <v>72.83449554443359</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>193.5689392089844</v>
+        <v>193.3004150390625</v>
       </c>
       <c r="H10" t="n">
-        <v>46.81536483764648</v>
+        <v>45.93467330932617</v>
       </c>
       <c r="I10" t="n">
-        <v>901.7913818359375</v>
+        <v>904.4305419921875</v>
       </c>
       <c r="J10" t="n">
-        <v>77.58502197265625</v>
+        <v>77.14591217041016</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>243.6474456787109</v>
+        <v>247.9301300048828</v>
       </c>
       <c r="H11" t="n">
-        <v>66.113525390625</v>
+        <v>64.73693084716797</v>
       </c>
       <c r="I11" t="n">
-        <v>887.5457153320312</v>
+        <v>893.564697265625</v>
       </c>
       <c r="J11" t="n">
-        <v>79.16498565673828</v>
+        <v>80.17470550537109</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>310.5510559082031</v>
+        <v>311.4454040527344</v>
       </c>
       <c r="H12" t="n">
-        <v>105.6262817382812</v>
+        <v>106.7017822265625</v>
       </c>
       <c r="I12" t="n">
-        <v>888.0896606445312</v>
+        <v>891.5265502929688</v>
       </c>
       <c r="J12" t="n">
-        <v>79.70122528076172</v>
+        <v>82.46296691894531</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>441.4537048339844</v>
+        <v>443.2306823730469</v>
       </c>
       <c r="H13" t="n">
-        <v>162.1546630859375</v>
+        <v>160.7583770751953</v>
       </c>
       <c r="I13" t="n">
-        <v>874.1301879882812</v>
+        <v>875.016845703125</v>
       </c>
       <c r="J13" t="n">
-        <v>93.09304046630859</v>
+        <v>94.16330718994141</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>144.6796417236328</v>
+        <v>141.6270904541016</v>
       </c>
       <c r="H14" t="n">
-        <v>43.30657196044922</v>
+        <v>44.35962295532227</v>
       </c>
       <c r="I14" t="n">
-        <v>708.0272827148438</v>
+        <v>708.6437377929688</v>
       </c>
       <c r="J14" t="n">
-        <v>109.9315490722656</v>
+        <v>108.6190795898438</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>147.876708984375</v>
+        <v>148.935546875</v>
       </c>
       <c r="H15" t="n">
-        <v>42.73517227172852</v>
+        <v>41.06385803222656</v>
       </c>
       <c r="I15" t="n">
-        <v>953.2359619140625</v>
+        <v>956.1664428710938</v>
       </c>
       <c r="J15" t="n">
-        <v>89.43952178955078</v>
+        <v>91.04339599609375</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>149.4399261474609</v>
+        <v>149.4713592529297</v>
       </c>
       <c r="H16" t="n">
-        <v>39.24863052368164</v>
+        <v>39.23233795166016</v>
       </c>
       <c r="I16" t="n">
-        <v>964.1226196289062</v>
+        <v>971.181640625</v>
       </c>
       <c r="J16" t="n">
-        <v>87.05430603027344</v>
+        <v>88.54416656494141</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>153.6645355224609</v>
+        <v>153.5319061279297</v>
       </c>
       <c r="H17" t="n">
-        <v>38.20633697509766</v>
+        <v>38.16390991210938</v>
       </c>
       <c r="I17" t="n">
-        <v>986.6116943359375</v>
+        <v>990.5353393554688</v>
       </c>
       <c r="J17" t="n">
-        <v>90.64582824707031</v>
+        <v>89.36935424804688</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>161.5653839111328</v>
+        <v>159.9602203369141</v>
       </c>
       <c r="H18" t="n">
-        <v>39.52154159545898</v>
+        <v>39.68654632568359</v>
       </c>
       <c r="I18" t="n">
-        <v>949.8585205078125</v>
+        <v>949.1256103515625</v>
       </c>
       <c r="J18" t="n">
-        <v>91.62864685058594</v>
+        <v>90.24620056152344</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>193.6884155273438</v>
+        <v>195.0205993652344</v>
       </c>
       <c r="H19" t="n">
-        <v>53.19622802734375</v>
+        <v>50.6872444152832</v>
       </c>
       <c r="I19" t="n">
-        <v>913.3743896484375</v>
+        <v>919.1599731445312</v>
       </c>
       <c r="J19" t="n">
-        <v>94.62637329101562</v>
+        <v>97.00314331054688</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>261.5325927734375</v>
+        <v>258.8237609863281</v>
       </c>
       <c r="H20" t="n">
-        <v>80.65252685546875</v>
+        <v>81.93911743164062</v>
       </c>
       <c r="I20" t="n">
-        <v>899.5913696289062</v>
+        <v>901.6508178710938</v>
       </c>
       <c r="J20" t="n">
-        <v>97.50001525878906</v>
+        <v>101.4837265014648</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>390.4522705078125</v>
+        <v>393.6036682128906</v>
       </c>
       <c r="H21" t="n">
-        <v>143.871826171875</v>
+        <v>142.4306640625</v>
       </c>
       <c r="I21" t="n">
-        <v>889.1921997070312</v>
+        <v>885.2782592773438</v>
       </c>
       <c r="J21" t="n">
-        <v>105.0403747558594</v>
+        <v>109.6474380493164</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>672.1417236328125</v>
+        <v>670.832275390625</v>
       </c>
       <c r="H22" t="n">
-        <v>130.0114288330078</v>
+        <v>134.4060668945312</v>
       </c>
       <c r="I22" t="n">
-        <v>867.948486328125</v>
+        <v>868.3590087890625</v>
       </c>
       <c r="J22" t="n">
-        <v>114.0856475830078</v>
+        <v>113.9702911376953</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>129.9178619384766</v>
+        <v>130.4562225341797</v>
       </c>
       <c r="H23" t="n">
-        <v>46.90179824829102</v>
+        <v>45.59047698974609</v>
       </c>
       <c r="I23" t="n">
-        <v>349.6416931152344</v>
+        <v>348.8722534179688</v>
       </c>
       <c r="J23" t="n">
-        <v>124.7464065551758</v>
+        <v>125.149284362793</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>138.1728363037109</v>
+        <v>138.4109191894531</v>
       </c>
       <c r="H24" t="n">
-        <v>43.52979278564453</v>
+        <v>45.17093276977539</v>
       </c>
       <c r="I24" t="n">
-        <v>542.7791748046875</v>
+        <v>550.0084838867188</v>
       </c>
       <c r="J24" t="n">
-        <v>137.3445281982422</v>
+        <v>138.4817657470703</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>145.5713043212891</v>
+        <v>144.3156585693359</v>
       </c>
       <c r="H25" t="n">
-        <v>42.92951202392578</v>
+        <v>43.27384185791016</v>
       </c>
       <c r="I25" t="n">
-        <v>854.600341796875</v>
+        <v>853.6663208007812</v>
       </c>
       <c r="J25" t="n">
-        <v>111.5751419067383</v>
+        <v>114.4189147949219</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>149.8834991455078</v>
+        <v>148.5399475097656</v>
       </c>
       <c r="H26" t="n">
-        <v>41.81504821777344</v>
+        <v>40.42600250244141</v>
       </c>
       <c r="I26" t="n">
-        <v>993.6814575195312</v>
+        <v>994.261962890625</v>
       </c>
       <c r="J26" t="n">
-        <v>100.2312927246094</v>
+        <v>98.12805938720703</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>157.7415161132812</v>
+        <v>158.6311492919922</v>
       </c>
       <c r="H27" t="n">
-        <v>41.22422409057617</v>
+        <v>40.6723518371582</v>
       </c>
       <c r="I27" t="n">
-        <v>1005.801452636719</v>
+        <v>1005.338562011719</v>
       </c>
       <c r="J27" t="n">
-        <v>95.74365997314453</v>
+        <v>95.37940979003906</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>180.6048126220703</v>
+        <v>178.845458984375</v>
       </c>
       <c r="H28" t="n">
-        <v>43.64187240600586</v>
+        <v>42.5458869934082</v>
       </c>
       <c r="I28" t="n">
-        <v>968.360595703125</v>
+        <v>964.2445068359375</v>
       </c>
       <c r="J28" t="n">
-        <v>100.1486892700195</v>
+        <v>102.2540130615234</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>231.7512512207031</v>
+        <v>228.8227386474609</v>
       </c>
       <c r="H29" t="n">
-        <v>62.09949111938477</v>
+        <v>58.47695159912109</v>
       </c>
       <c r="I29" t="n">
-        <v>934.5770874023438</v>
+        <v>927.4916381835938</v>
       </c>
       <c r="J29" t="n">
-        <v>108.8442764282227</v>
+        <v>110.7715454101562</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>369.9651184082031</v>
+        <v>369.7291259765625</v>
       </c>
       <c r="H30" t="n">
-        <v>119.9955215454102</v>
+        <v>119.5177383422852</v>
       </c>
       <c r="I30" t="n">
-        <v>897.55810546875</v>
+        <v>894.1813354492188</v>
       </c>
       <c r="J30" t="n">
-        <v>114.1345367431641</v>
+        <v>115.3315048217773</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>664.0662231445312</v>
+        <v>662.0333862304688</v>
       </c>
       <c r="H31" t="n">
-        <v>117.0410461425781</v>
+        <v>118.8361740112305</v>
       </c>
       <c r="I31" t="n">
-        <v>873.3426513671875</v>
+        <v>873.7213134765625</v>
       </c>
       <c r="J31" t="n">
-        <v>127.0707931518555</v>
+        <v>127.0690994262695</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>123.8019256591797</v>
+        <v>123.4810256958008</v>
       </c>
       <c r="H32" t="n">
-        <v>45.98478317260742</v>
+        <v>48.48881912231445</v>
       </c>
       <c r="I32" t="n">
-        <v>159.0672607421875</v>
+        <v>157.2890930175781</v>
       </c>
       <c r="J32" t="n">
-        <v>81.59845733642578</v>
+        <v>82.28012084960938</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>129.87646484375</v>
+        <v>131.0966339111328</v>
       </c>
       <c r="H33" t="n">
-        <v>46.33737945556641</v>
+        <v>45.76994705200195</v>
       </c>
       <c r="I33" t="n">
-        <v>254.2636260986328</v>
+        <v>254.9241333007812</v>
       </c>
       <c r="J33" t="n">
-        <v>111.4583129882812</v>
+        <v>113.4374771118164</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>135.1216430664062</v>
+        <v>134.8938903808594</v>
       </c>
       <c r="H34" t="n">
-        <v>43.59111404418945</v>
+        <v>45.3245735168457</v>
       </c>
       <c r="I34" t="n">
-        <v>408.167236328125</v>
+        <v>403.5608215332031</v>
       </c>
       <c r="J34" t="n">
-        <v>143.7105407714844</v>
+        <v>143.0600891113281</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>140.4060516357422</v>
+        <v>141.0128936767578</v>
       </c>
       <c r="H35" t="n">
-        <v>43.80545043945312</v>
+        <v>42.96511459350586</v>
       </c>
       <c r="I35" t="n">
-        <v>530.3329467773438</v>
+        <v>534.0586547851562</v>
       </c>
       <c r="J35" t="n">
-        <v>142.3718566894531</v>
+        <v>146.2570648193359</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>155.5670623779297</v>
+        <v>155.2243347167969</v>
       </c>
       <c r="H36" t="n">
-        <v>44.01933670043945</v>
+        <v>42.90567016601562</v>
       </c>
       <c r="I36" t="n">
-        <v>812.1744384765625</v>
+        <v>805.1735229492188</v>
       </c>
       <c r="J36" t="n">
-        <v>136.8478851318359</v>
+        <v>135.6256408691406</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>173.6280517578125</v>
+        <v>175.1664123535156</v>
       </c>
       <c r="H37" t="n">
-        <v>46.78841400146484</v>
+        <v>45.13869094848633</v>
       </c>
       <c r="I37" t="n">
-        <v>884.03759765625</v>
+        <v>883.7146606445312</v>
       </c>
       <c r="J37" t="n">
-        <v>133.4433746337891</v>
+        <v>131.1310272216797</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>228.5493774414062</v>
+        <v>227.8990173339844</v>
       </c>
       <c r="H38" t="n">
-        <v>54.06724548339844</v>
+        <v>56.2855339050293</v>
       </c>
       <c r="I38" t="n">
-        <v>916.294677734375</v>
+        <v>919.3782348632812</v>
       </c>
       <c r="J38" t="n">
-        <v>123.4953765869141</v>
+        <v>122.3510589599609</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>357.5758056640625</v>
+        <v>360.3685913085938</v>
       </c>
       <c r="H39" t="n">
-        <v>94.13304901123047</v>
+        <v>93.88358306884766</v>
       </c>
       <c r="I39" t="n">
-        <v>897.1802978515625</v>
+        <v>902.157470703125</v>
       </c>
       <c r="J39" t="n">
-        <v>125.3388900756836</v>
+        <v>121.5182266235352</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>621.420654296875</v>
+        <v>617.0296630859375</v>
       </c>
       <c r="H40" t="n">
-        <v>113.0462799072266</v>
+        <v>111.0912094116211</v>
       </c>
       <c r="I40" t="n">
-        <v>864.505126953125</v>
+        <v>866.8861694335938</v>
       </c>
       <c r="J40" t="n">
-        <v>132.3820495605469</v>
+        <v>134.0466766357422</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>118.5503921508789</v>
+        <v>119.3084106445312</v>
       </c>
       <c r="H41" t="n">
-        <v>49.20254135131836</v>
+        <v>48.40700531005859</v>
       </c>
       <c r="I41" t="n">
-        <v>102.3559036254883</v>
+        <v>103.2099685668945</v>
       </c>
       <c r="J41" t="n">
-        <v>57.13314819335938</v>
+        <v>63.14088821411133</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>119.6521453857422</v>
+        <v>121.997673034668</v>
       </c>
       <c r="H42" t="n">
-        <v>48.84347915649414</v>
+        <v>47.72007369995117</v>
       </c>
       <c r="I42" t="n">
-        <v>129.8830413818359</v>
+        <v>134.8494415283203</v>
       </c>
       <c r="J42" t="n">
-        <v>69.05721282958984</v>
+        <v>70.63454437255859</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>127.5893630981445</v>
+        <v>127.7107162475586</v>
       </c>
       <c r="H43" t="n">
-        <v>46.44586944580078</v>
+        <v>47.99916458129883</v>
       </c>
       <c r="I43" t="n">
-        <v>164.8705596923828</v>
+        <v>165.6855316162109</v>
       </c>
       <c r="J43" t="n">
-        <v>79.86927795410156</v>
+        <v>76.09956359863281</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>134.2063140869141</v>
+        <v>138.4203796386719</v>
       </c>
       <c r="H44" t="n">
-        <v>46.26542282104492</v>
+        <v>46.51254272460938</v>
       </c>
       <c r="I44" t="n">
-        <v>276.1067504882812</v>
+        <v>273.3213806152344</v>
       </c>
       <c r="J44" t="n">
-        <v>105.8261032104492</v>
+        <v>109.0593948364258</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>147.5132751464844</v>
+        <v>145.9866485595703</v>
       </c>
       <c r="H45" t="n">
-        <v>47.14928817749023</v>
+        <v>43.24129104614258</v>
       </c>
       <c r="I45" t="n">
-        <v>337.3311157226562</v>
+        <v>341.173828125</v>
       </c>
       <c r="J45" t="n">
-        <v>113.8004684448242</v>
+        <v>116.9819030761719</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0520172119141</v>
+        <v>166.3529357910156</v>
       </c>
       <c r="H46" t="n">
-        <v>47.33127975463867</v>
+        <v>44.95656585693359</v>
       </c>
       <c r="I46" t="n">
-        <v>471.8856811523438</v>
+        <v>469.9729614257812</v>
       </c>
       <c r="J46" t="n">
-        <v>124.3884201049805</v>
+        <v>127.5780334472656</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>219.6524963378906</v>
+        <v>223.5606994628906</v>
       </c>
       <c r="H47" t="n">
-        <v>52.73931884765625</v>
+        <v>58.92337417602539</v>
       </c>
       <c r="I47" t="n">
-        <v>675.5780029296875</v>
+        <v>674.4752197265625</v>
       </c>
       <c r="J47" t="n">
-        <v>151.11279296875</v>
+        <v>151.1671600341797</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>367.20849609375</v>
+        <v>367.2913818359375</v>
       </c>
       <c r="H48" t="n">
-        <v>84.86158752441406</v>
+        <v>82.29510498046875</v>
       </c>
       <c r="I48" t="n">
-        <v>835.9502563476562</v>
+        <v>837.1339721679688</v>
       </c>
       <c r="J48" t="n">
-        <v>139.991455078125</v>
+        <v>145.6507263183594</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>567.6024169921875</v>
+        <v>568.7037353515625</v>
       </c>
       <c r="H49" t="n">
-        <v>106.3021469116211</v>
+        <v>107.5904235839844</v>
       </c>
       <c r="I49" t="n">
-        <v>845.0254516601562</v>
+        <v>849.3824462890625</v>
       </c>
       <c r="J49" t="n">
-        <v>146.4293670654297</v>
+        <v>150.4876403808594</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>118.2015762329102</v>
+        <v>117.4748153686523</v>
       </c>
       <c r="H50" t="n">
-        <v>50.59437561035156</v>
+        <v>51.20054244995117</v>
       </c>
       <c r="I50" t="n">
-        <v>54.82891845703125</v>
+        <v>56.18568420410156</v>
       </c>
       <c r="J50" t="n">
-        <v>60.17752075195312</v>
+        <v>61.32414627075195</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>123.3953628540039</v>
+        <v>122.6266555786133</v>
       </c>
       <c r="H51" t="n">
-        <v>48.29069137573242</v>
+        <v>48.68601226806641</v>
       </c>
       <c r="I51" t="n">
-        <v>64.27407836914062</v>
+        <v>63.91851043701172</v>
       </c>
       <c r="J51" t="n">
-        <v>63.62469100952148</v>
+        <v>63.59428787231445</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>126.6222534179688</v>
+        <v>128.9384613037109</v>
       </c>
       <c r="H52" t="n">
-        <v>47.73197937011719</v>
+        <v>48.41370010375977</v>
       </c>
       <c r="I52" t="n">
-        <v>68.54587554931641</v>
+        <v>67.53451538085938</v>
       </c>
       <c r="J52" t="n">
-        <v>66.72910308837891</v>
+        <v>64.55382537841797</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>136.3111419677734</v>
+        <v>133.617431640625</v>
       </c>
       <c r="H53" t="n">
-        <v>45.98192596435547</v>
+        <v>45.8654670715332</v>
       </c>
       <c r="I53" t="n">
-        <v>96.82804870605469</v>
+        <v>98.37516784667969</v>
       </c>
       <c r="J53" t="n">
-        <v>67.62313842773438</v>
+        <v>70.40370178222656</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>147.7492065429688</v>
+        <v>146.4110260009766</v>
       </c>
       <c r="H54" t="n">
-        <v>45.09007263183594</v>
+        <v>46.94311904907227</v>
       </c>
       <c r="I54" t="n">
-        <v>139.4515533447266</v>
+        <v>135.7180480957031</v>
       </c>
       <c r="J54" t="n">
-        <v>70.16752624511719</v>
+        <v>67.66483306884766</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>164.7797546386719</v>
+        <v>166.83544921875</v>
       </c>
       <c r="H55" t="n">
-        <v>45.55902099609375</v>
+        <v>46.79546737670898</v>
       </c>
       <c r="I55" t="n">
-        <v>207.54541015625</v>
+        <v>203.3301544189453</v>
       </c>
       <c r="J55" t="n">
-        <v>81.46571350097656</v>
+        <v>78.78549194335938</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>205.1361389160156</v>
+        <v>207.3870239257812</v>
       </c>
       <c r="H56" t="n">
-        <v>52.95870971679688</v>
+        <v>52.94567489624023</v>
       </c>
       <c r="I56" t="n">
-        <v>259.9306640625</v>
+        <v>254.6863555908203</v>
       </c>
       <c r="J56" t="n">
-        <v>95.07591247558594</v>
+        <v>94.54281616210938</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>321.7586975097656</v>
+        <v>322.9203491210938</v>
       </c>
       <c r="H57" t="n">
-        <v>76.18926239013672</v>
+        <v>78.68406677246094</v>
       </c>
       <c r="I57" t="n">
-        <v>499.3950500488281</v>
+        <v>490.0331726074219</v>
       </c>
       <c r="J57" t="n">
-        <v>162.2772216796875</v>
+        <v>161.9533233642578</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>561.4942016601562</v>
+        <v>561.0974731445312</v>
       </c>
       <c r="H58" t="n">
-        <v>105.3481140136719</v>
+        <v>108.2699508666992</v>
       </c>
       <c r="I58" t="n">
-        <v>698.779296875</v>
+        <v>698.259033203125</v>
       </c>
       <c r="J58" t="n">
-        <v>220.1234893798828</v>
+        <v>225.3889465332031</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>126.1393203735352</v>
+        <v>125.6525650024414</v>
       </c>
       <c r="H59" t="n">
-        <v>50.26729202270508</v>
+        <v>49.91460418701172</v>
       </c>
       <c r="I59" t="n">
-        <v>-14.85083484649658</v>
+        <v>-17.83967971801758</v>
       </c>
       <c r="J59" t="n">
-        <v>74.69204711914062</v>
+        <v>75.51325988769531</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>131.3143920898438</v>
+        <v>132.4940643310547</v>
       </c>
       <c r="H60" t="n">
-        <v>48.18332672119141</v>
+        <v>49.21464538574219</v>
       </c>
       <c r="I60" t="n">
-        <v>-18.68016242980957</v>
+        <v>-22.95322608947754</v>
       </c>
       <c r="J60" t="n">
-        <v>77.55403900146484</v>
+        <v>76.92281341552734</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>139.1309204101562</v>
+        <v>139.9782867431641</v>
       </c>
       <c r="H61" t="n">
-        <v>48.13376998901367</v>
+        <v>47.63111114501953</v>
       </c>
       <c r="I61" t="n">
-        <v>-13.0900354385376</v>
+        <v>-12.59249877929688</v>
       </c>
       <c r="J61" t="n">
-        <v>76.51136016845703</v>
+        <v>75.81093597412109</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>149.6120758056641</v>
+        <v>150.1762390136719</v>
       </c>
       <c r="H62" t="n">
-        <v>50.68000030517578</v>
+        <v>49.54770660400391</v>
       </c>
       <c r="I62" t="n">
-        <v>3.361229419708252</v>
+        <v>5.950968742370605</v>
       </c>
       <c r="J62" t="n">
-        <v>73.1829833984375</v>
+        <v>72.42720031738281</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>164.6911010742188</v>
+        <v>164.9216918945312</v>
       </c>
       <c r="H63" t="n">
-        <v>49.66197204589844</v>
+        <v>48.376708984375</v>
       </c>
       <c r="I63" t="n">
-        <v>46.41855621337891</v>
+        <v>46.2160758972168</v>
       </c>
       <c r="J63" t="n">
-        <v>73.90885162353516</v>
+        <v>72.24692535400391</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>200.0764007568359</v>
+        <v>200.4974060058594</v>
       </c>
       <c r="H64" t="n">
-        <v>51.55944061279297</v>
+        <v>53.46562576293945</v>
       </c>
       <c r="I64" t="n">
-        <v>79.28421783447266</v>
+        <v>76.062255859375</v>
       </c>
       <c r="J64" t="n">
-        <v>76.52413177490234</v>
+        <v>76.29668426513672</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>315.5968933105469</v>
+        <v>318.5792846679688</v>
       </c>
       <c r="H65" t="n">
-        <v>79.50526428222656</v>
+        <v>77.81330871582031</v>
       </c>
       <c r="I65" t="n">
-        <v>197.7321166992188</v>
+        <v>192.7541656494141</v>
       </c>
       <c r="J65" t="n">
-        <v>128.4478302001953</v>
+        <v>125.8488159179688</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>147.6522979736328</v>
+        <v>147.2501678466797</v>
       </c>
       <c r="H66" t="n">
-        <v>52.36201858520508</v>
+        <v>54.82129669189453</v>
       </c>
       <c r="I66" t="n">
-        <v>-115.691780090332</v>
+        <v>-117.5002593994141</v>
       </c>
       <c r="J66" t="n">
-        <v>84.19691467285156</v>
+        <v>86.05663299560547</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>154.0048065185547</v>
+        <v>151.6300201416016</v>
       </c>
       <c r="H67" t="n">
-        <v>55.88594818115234</v>
+        <v>54.31260299682617</v>
       </c>
       <c r="I67" t="n">
-        <v>-117.908447265625</v>
+        <v>-121.2024078369141</v>
       </c>
       <c r="J67" t="n">
-        <v>88.03975677490234</v>
+        <v>85.91070556640625</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>164.4788665771484</v>
+        <v>162.9111175537109</v>
       </c>
       <c r="H68" t="n">
-        <v>55.5330810546875</v>
+        <v>54.36145782470703</v>
       </c>
       <c r="I68" t="n">
-        <v>-98.37312316894531</v>
+        <v>-99.27252197265625</v>
       </c>
       <c r="J68" t="n">
-        <v>80.97795867919922</v>
+        <v>80.44043731689453</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>175.0015563964844</v>
+        <v>172.3265686035156</v>
       </c>
       <c r="H69" t="n">
-        <v>54.1806526184082</v>
+        <v>54.18474578857422</v>
       </c>
       <c r="I69" t="n">
-        <v>-80.88558959960938</v>
+        <v>-81.54225158691406</v>
       </c>
       <c r="J69" t="n">
-        <v>79.09493255615234</v>
+        <v>81.88862609863281</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>203.6432495117188</v>
+        <v>202.7893218994141</v>
       </c>
       <c r="H70" t="n">
-        <v>59.48577880859375</v>
+        <v>57.53063201904297</v>
       </c>
       <c r="I70" t="n">
-        <v>-36.21764755249023</v>
+        <v>-35.74020004272461</v>
       </c>
       <c r="J70" t="n">
-        <v>83.76450347900391</v>
+        <v>82.19306945800781</v>
       </c>
     </row>
   </sheetData>
